--- a/Planilha dos horários 2023.xlsx
+++ b/Planilha dos horários 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="158">
   <si>
     <t xml:space="preserve">Professor</t>
   </si>
@@ -202,7 +202,13 @@
     <t xml:space="preserve">NB</t>
   </si>
   <si>
+    <t xml:space="preserve">Des. Tec. Mec.T1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suzanny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des. Tec. Mec.T2</t>
   </si>
   <si>
     <t xml:space="preserve">Ander. Edson.</t>
@@ -766,8 +772,8 @@
   </sheetPr>
   <dimension ref="A1:Z158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1843,7 +1849,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
@@ -1875,10 +1881,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1910,7 +1916,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>53</v>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
@@ -1983,7 +1989,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>16</v>
@@ -2120,10 +2126,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>38</v>
@@ -2155,10 +2161,10 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>38</v>
@@ -2190,10 +2196,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -2240,10 +2246,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>38</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -2360,7 +2366,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
@@ -2395,10 +2401,10 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>17</v>
@@ -2437,10 +2443,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>17</v>
@@ -2475,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
@@ -2507,10 +2513,10 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>17</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
@@ -2580,7 +2586,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>17</v>
@@ -2685,7 +2691,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>17</v>
@@ -2717,10 +2723,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
@@ -2785,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>33</v>
@@ -2805,10 +2811,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>33</v>
@@ -2875,7 +2881,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>53</v>
@@ -2910,10 +2916,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>33</v>
@@ -2963,7 +2969,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>38</v>
@@ -3002,10 +3008,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>38</v>
@@ -3026,10 +3032,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>38</v>
@@ -3050,10 +3056,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>38</v>
@@ -3074,10 +3080,10 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>38</v>
@@ -3139,10 +3145,10 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>38</v>
@@ -3212,10 +3218,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>17</v>
@@ -3250,7 +3256,7 @@
         <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>17</v>
@@ -3285,7 +3291,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>17</v>
@@ -3320,7 +3326,7 @@
         <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>17</v>
@@ -3352,10 +3358,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>17</v>
@@ -3387,10 +3393,10 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>17</v>
@@ -3425,7 +3431,7 @@
         <v>57</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>17</v>
@@ -3457,10 +3463,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>17</v>
@@ -3492,10 +3498,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>17</v>
@@ -3527,10 +3533,10 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
@@ -3565,7 +3571,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -3612,10 +3618,10 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
@@ -3662,10 +3668,10 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
@@ -3688,7 +3694,7 @@
         <v>41</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>17</v>
@@ -3729,10 +3735,10 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>17</v>
@@ -3767,7 +3773,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
@@ -3802,7 +3808,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
@@ -3834,10 +3840,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>17</v>
@@ -3872,7 +3878,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>33</v>
@@ -3911,10 +3917,10 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>33</v>
@@ -3958,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
@@ -3993,7 +3999,7 @@
         <v>30</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>33</v>
@@ -4025,10 +4031,10 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>33</v>
@@ -4060,10 +4066,10 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>33</v>
@@ -4133,7 +4139,7 @@
         <v>57</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>33</v>
@@ -4165,10 +4171,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
@@ -4200,10 +4206,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>33</v>
@@ -4238,7 +4244,7 @@
         <v>27</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
@@ -4270,10 +4276,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
@@ -4305,10 +4311,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
@@ -4340,10 +4346,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>33</v>
@@ -4375,10 +4381,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>33</v>
@@ -4413,7 +4419,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>33</v>
@@ -4448,7 +4454,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>33</v>
@@ -4480,10 +4486,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>33</v>
@@ -4515,10 +4521,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>38</v>
@@ -4542,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
@@ -4568,7 +4574,7 @@
         <v>58</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>38</v>
@@ -4600,10 +4606,10 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>38</v>
@@ -4635,10 +4641,10 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>38</v>
@@ -4670,10 +4676,10 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>38</v>
@@ -4693,7 +4699,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>22</v>
@@ -4716,10 +4722,10 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>38</v>
@@ -4751,10 +4757,10 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>38</v>
@@ -4789,7 +4795,7 @@
         <v>28</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>38</v>
@@ -4813,7 +4819,7 @@
         <v>40</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N113" s="1" t="n">
         <v>4</v>
@@ -4821,10 +4827,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>38</v>
@@ -4848,7 +4854,7 @@
         <v>40</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N114" s="1" t="n">
         <v>4</v>
@@ -4856,10 +4862,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>38</v>
@@ -4883,7 +4889,7 @@
         <v>40</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N115" s="1" t="n">
         <v>4</v>
@@ -4891,10 +4897,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>38</v>
@@ -4918,7 +4924,7 @@
         <v>40</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N116" s="1" t="n">
         <v>4</v>
@@ -4926,10 +4932,10 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>38</v>
@@ -4964,7 +4970,7 @@
         <v>28</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>38</v>
@@ -4987,7 +4993,7 @@
         <v>48</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>38</v>
@@ -5007,10 +5013,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>38</v>
@@ -5034,7 +5040,7 @@
         <v>40</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -5057,10 +5063,10 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>38</v>
@@ -5084,7 +5090,7 @@
         <v>40</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N121" s="1" t="n">
         <v>4</v>
@@ -5095,7 +5101,7 @@
         <v>28</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>38</v>
@@ -5115,10 +5121,10 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>38</v>
@@ -5141,7 +5147,7 @@
         <v>34</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>38</v>
@@ -5159,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -5182,10 +5188,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>38</v>
@@ -5203,7 +5209,7 @@
         <v>40</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -5229,7 +5235,7 @@
         <v>30</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>38</v>
@@ -5261,10 +5267,10 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>38</v>
@@ -5296,10 +5302,10 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>38</v>
@@ -5334,7 +5340,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>38</v>
@@ -5366,10 +5372,10 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>38</v>
@@ -5404,7 +5410,7 @@
         <v>46</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>38</v>
@@ -5428,7 +5434,7 @@
         <v>40</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N131" s="1" t="n">
         <v>4</v>
@@ -5436,10 +5442,10 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>38</v>
@@ -5513,10 +5519,10 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>33</v>
@@ -5539,7 +5545,7 @@
         <v>44</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>33</v>
@@ -5574,7 +5580,7 @@
         <v>46</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>33</v>
@@ -5594,10 +5600,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>33</v>
@@ -5647,7 +5653,7 @@
         <v>46</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>17</v>
@@ -5686,10 +5692,10 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>33</v>
@@ -5713,7 +5719,7 @@
         <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M139" s="1" t="n">
         <v>4</v>
@@ -5721,10 +5727,10 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>33</v>
@@ -5748,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M140" s="1" t="n">
         <v>4</v>
@@ -5756,10 +5762,10 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>33</v>
@@ -5806,10 +5812,10 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>33</v>
@@ -5856,10 +5862,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>33</v>
@@ -5879,10 +5885,10 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>33</v>
@@ -5902,10 +5908,10 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>33</v>
@@ -5929,7 +5935,7 @@
         <v>19</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
@@ -5952,10 +5958,10 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>33</v>
@@ -5987,10 +5993,10 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>33</v>
@@ -6025,7 +6031,7 @@
         <v>26</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>33</v>
@@ -6057,10 +6063,10 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>33</v>
@@ -6092,10 +6098,10 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>33</v>
@@ -6119,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M150" s="1" t="n">
         <v>4</v>
@@ -6130,7 +6136,7 @@
         <v>34</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>33</v>
@@ -6162,10 +6168,10 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>33</v>
@@ -6185,10 +6191,10 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>33</v>
@@ -6235,10 +6241,10 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>33</v>
@@ -6273,7 +6279,7 @@
         <v>57</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>33</v>
@@ -6305,10 +6311,10 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>33</v>
@@ -6340,10 +6346,10 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>33</v>
@@ -6367,7 +6373,7 @@
         <v>19</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M157" s="1" t="n">
         <v>6</v>
@@ -6375,10 +6381,10 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>33</v>
@@ -6402,7 +6408,7 @@
         <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M158" s="1" t="n">
         <v>6</v>

--- a/Planilha dos horários 2023.xlsx
+++ b/Planilha dos horários 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="156">
   <si>
     <t xml:space="preserve">Professor</t>
   </si>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">M.T.F.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ander. Edson</t>
+    <t xml:space="preserve">Ander. Edson.</t>
   </si>
   <si>
     <t xml:space="preserve">Tornearia</t>
@@ -211,9 +211,6 @@
     <t xml:space="preserve">Des. Tec. Mec.T2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ander. Edson.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sandro</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cont. Lóg. Prog. CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And. Edson</t>
   </si>
   <si>
     <t xml:space="preserve">Usin. CNC</t>
@@ -772,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:Z158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>53</v>
@@ -1951,7 +1945,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
@@ -1989,7 +1983,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -2056,7 +2050,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>16</v>
@@ -2126,10 +2120,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>38</v>
@@ -2161,10 +2155,10 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>38</v>
@@ -2199,7 +2193,7 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -2246,10 +2240,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>38</v>
@@ -2296,7 +2290,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -2366,7 +2360,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
@@ -2401,10 +2395,10 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>17</v>
@@ -2443,10 +2437,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>17</v>
@@ -2481,7 +2475,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>17</v>
@@ -2513,10 +2507,10 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>17</v>
@@ -2548,7 +2542,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
@@ -2586,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>17</v>
@@ -2691,7 +2685,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>17</v>
@@ -2723,10 +2717,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
@@ -2765,10 +2759,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
@@ -2791,7 +2785,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>33</v>
@@ -2811,10 +2805,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>33</v>
@@ -2881,7 +2875,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>53</v>
@@ -2916,10 +2910,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>33</v>
@@ -2969,7 +2963,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>38</v>
@@ -3008,10 +3002,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>38</v>
@@ -3032,10 +3026,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>38</v>
@@ -3056,10 +3050,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>38</v>
@@ -3083,7 +3077,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>38</v>
@@ -3145,10 +3139,10 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>38</v>
@@ -3218,10 +3212,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>17</v>
@@ -3256,7 +3250,7 @@
         <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>17</v>
@@ -3291,7 +3285,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>17</v>
@@ -3326,7 +3320,7 @@
         <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>17</v>
@@ -3358,10 +3352,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>17</v>
@@ -3393,10 +3387,10 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>17</v>
@@ -3431,7 +3425,7 @@
         <v>57</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>17</v>
@@ -3463,10 +3457,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>17</v>
@@ -3498,10 +3492,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>17</v>
@@ -3533,10 +3527,10 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
@@ -3571,7 +3565,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -3618,10 +3612,10 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
@@ -3668,10 +3662,10 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>17</v>
@@ -3694,7 +3688,7 @@
         <v>41</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>17</v>
@@ -3735,10 +3729,10 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>17</v>
@@ -3773,7 +3767,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
@@ -3808,7 +3802,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
@@ -3840,10 +3834,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>17</v>
@@ -3878,7 +3872,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>33</v>
@@ -3917,10 +3911,10 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>33</v>
@@ -3964,7 +3958,7 @@
         <v>32</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
@@ -3999,7 +3993,7 @@
         <v>30</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>33</v>
@@ -4031,10 +4025,10 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>33</v>
@@ -4066,10 +4060,10 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>33</v>
@@ -4139,7 +4133,7 @@
         <v>57</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>33</v>
@@ -4171,10 +4165,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
@@ -4206,10 +4200,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>33</v>
@@ -4244,7 +4238,7 @@
         <v>27</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
@@ -4276,10 +4270,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
@@ -4311,10 +4305,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
@@ -4346,10 +4340,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>33</v>
@@ -4381,10 +4375,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>33</v>
@@ -4419,7 +4413,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>33</v>
@@ -4454,7 +4448,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>33</v>
@@ -4486,10 +4480,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>33</v>
@@ -4521,10 +4515,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>38</v>
@@ -4548,7 +4542,7 @@
         <v>40</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
@@ -4574,7 +4568,7 @@
         <v>58</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>38</v>
@@ -4606,10 +4600,10 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>38</v>
@@ -4641,10 +4635,10 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>38</v>
@@ -4676,10 +4670,10 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>38</v>
@@ -4699,7 +4693,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>22</v>
@@ -4725,7 +4719,7 @@
         <v>61</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>38</v>
@@ -4757,10 +4751,10 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>38</v>
@@ -4795,7 +4789,7 @@
         <v>28</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>38</v>
@@ -4819,7 +4813,7 @@
         <v>40</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N113" s="1" t="n">
         <v>4</v>
@@ -4827,10 +4821,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>38</v>
@@ -4854,7 +4848,7 @@
         <v>40</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N114" s="1" t="n">
         <v>4</v>
@@ -4862,10 +4856,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>38</v>
@@ -4889,7 +4883,7 @@
         <v>40</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N115" s="1" t="n">
         <v>4</v>
@@ -4897,10 +4891,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>38</v>
@@ -4924,7 +4918,7 @@
         <v>40</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N116" s="1" t="n">
         <v>4</v>
@@ -4932,10 +4926,10 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>38</v>
@@ -4970,7 +4964,7 @@
         <v>28</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>38</v>
@@ -4993,7 +4987,7 @@
         <v>48</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>38</v>
@@ -5013,10 +5007,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>38</v>
@@ -5040,7 +5034,7 @@
         <v>40</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -5063,10 +5057,10 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>38</v>
@@ -5090,7 +5084,7 @@
         <v>40</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N121" s="1" t="n">
         <v>4</v>
@@ -5101,7 +5095,7 @@
         <v>28</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>38</v>
@@ -5121,10 +5115,10 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>38</v>
@@ -5147,7 +5141,7 @@
         <v>34</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>38</v>
@@ -5165,7 +5159,7 @@
         <v>40</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -5188,10 +5182,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>38</v>
@@ -5209,7 +5203,7 @@
         <v>40</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -5235,7 +5229,7 @@
         <v>30</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>38</v>
@@ -5267,10 +5261,10 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>38</v>
@@ -5302,10 +5296,10 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>38</v>
@@ -5340,7 +5334,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>38</v>
@@ -5372,10 +5366,10 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>38</v>
@@ -5410,7 +5404,7 @@
         <v>46</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>38</v>
@@ -5434,7 +5428,7 @@
         <v>40</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N131" s="1" t="n">
         <v>4</v>
@@ -5442,10 +5436,10 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>38</v>
@@ -5519,10 +5513,10 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>33</v>
@@ -5545,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>33</v>
@@ -5580,7 +5574,7 @@
         <v>46</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>33</v>
@@ -5600,10 +5594,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>33</v>
@@ -5653,7 +5647,7 @@
         <v>46</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>17</v>
@@ -5692,10 +5686,10 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>33</v>
@@ -5719,7 +5713,7 @@
         <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M139" s="1" t="n">
         <v>4</v>
@@ -5727,10 +5721,10 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>33</v>
@@ -5754,7 +5748,7 @@
         <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M140" s="1" t="n">
         <v>4</v>
@@ -5762,10 +5756,10 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>33</v>
@@ -5812,10 +5806,10 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>33</v>
@@ -5862,10 +5856,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>33</v>
@@ -5885,10 +5879,10 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>33</v>
@@ -5908,10 +5902,10 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>33</v>
@@ -5935,7 +5929,7 @@
         <v>19</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
@@ -5958,10 +5952,10 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>33</v>
@@ -5993,10 +5987,10 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>33</v>
@@ -6031,7 +6025,7 @@
         <v>26</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>33</v>
@@ -6063,10 +6057,10 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>33</v>
@@ -6098,10 +6092,10 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>33</v>
@@ -6125,7 +6119,7 @@
         <v>19</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M150" s="1" t="n">
         <v>4</v>
@@ -6136,7 +6130,7 @@
         <v>34</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>33</v>
@@ -6168,10 +6162,10 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>33</v>
@@ -6191,10 +6185,10 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>33</v>
@@ -6241,10 +6235,10 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>33</v>
@@ -6279,7 +6273,7 @@
         <v>57</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>33</v>
@@ -6311,10 +6305,10 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>33</v>
@@ -6346,10 +6340,10 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>33</v>
@@ -6373,7 +6367,7 @@
         <v>19</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M157" s="1" t="n">
         <v>6</v>
@@ -6381,10 +6375,10 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>33</v>
@@ -6408,7 +6402,7 @@
         <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M158" s="1" t="n">
         <v>6</v>
